--- a/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
+++ b/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>Wo endet Gewinnzone?</t>
+  </si>
+  <si>
+    <t>Guide Trikot Pauschal</t>
+  </si>
+  <si>
+    <t>Guide Trikots</t>
+  </si>
+  <si>
+    <t>Guide pro Tag</t>
   </si>
 </sst>
 </file>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,14 +565,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="3">
-        <f>B17*(B9/2)*B1</f>
+        <f>B19*(B9/2)*B1</f>
         <v>6250</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="4">
-        <f>B17*B27</f>
+        <f>B19*B29</f>
         <v>15000</v>
       </c>
     </row>
@@ -575,14 +587,14 @@
         <v>13</v>
       </c>
       <c r="E4" s="3">
-        <f>B18*B10*B1</f>
+        <f>B20*B10*B1</f>
         <v>3465</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="4">
-        <f>B18*B28</f>
+        <f>B20*B30</f>
         <v>6510</v>
       </c>
     </row>
@@ -597,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="3">
-        <f>(B17+B18)*B11*B1</f>
+        <f>(B19+B20)*B11*B1</f>
         <v>4050</v>
       </c>
     </row>
@@ -658,8 +670,8 @@
         <v>16</v>
       </c>
       <c r="E9" s="3">
-        <f>125*B1</f>
-        <v>625</v>
+        <f>B16*(B4+B3)*B1</f>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -718,6 +730,13 @@
         <v>40</v>
       </c>
       <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3">
+        <f>B15*B21</f>
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -731,7 +750,7 @@
       </c>
       <c r="E14" s="5">
         <f>SUM(E3:E13)</f>
-        <v>16110</v>
+        <v>16145</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
@@ -743,161 +762,190 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10">
-        <f>SUM(B3:B6)</f>
-        <v>3</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="8">
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="10">
-        <f>B7-B5-B3</f>
-        <v>20</v>
-      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="6">
-        <f>H14-E14</f>
-        <v>5400</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B18" s="10">
-        <f>B8-B6-B4</f>
-        <v>7</v>
+        <f>SUM(B3:B6)</f>
+        <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="6">
-        <f>H17/B19/B1</f>
-        <v>40</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="10">
-        <f>B17+B18</f>
-        <v>27</v>
+        <f>B7-B5-B3</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="6">
+        <f>H14-E14</f>
+        <v>5365</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="10">
-        <f>SUM(B16:B18)</f>
-        <v>30</v>
+        <f>B8-B6-B4</f>
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="6">
+        <f>H19/B21/B1</f>
+        <v>39.74074074074074</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10">
+        <f>B19+B20</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SUM(B18:B20)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B24" s="11">
         <f>SUM(E6:E8)</f>
         <v>1570</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E24" s="3">
         <f>SUM(E3:E4,E6,E7)+B14</f>
         <v>10835</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B25" s="11">
         <f>SUM(E9:E12)</f>
-        <v>775</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E25" s="3">
         <f>SUM(E5,E8)</f>
         <v>4500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="D24" s="2" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="5">
-        <f>SUM(E22:E23)</f>
+      <c r="E26" s="5">
+        <f>SUM(E24:E25)</f>
         <v>15335</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="11">
-        <f>E3/B17+E5/B19+B22/B19+B23/B19+B13*B1</f>
-        <v>749.35185185185185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="B27" s="11">
+        <f>E3/B19+E5/B21+B24/B21+B25/B21+B13*B1</f>
+        <v>745.64814814814815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="11">
-        <f>E4/B18+E5/B19+B22/B19+B23/B19+B13*B1</f>
-        <v>931.85185185185185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="11">
+        <f>E4/B20+E5/B21+B24/B21+B25/B21+B13*B1</f>
+        <v>928.14814814814815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B29" s="9">
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B30" s="9">
         <v>930</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
+++ b/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -32,18 +32,9 @@
     <t>Anzahl Touren</t>
   </si>
   <si>
-    <t>DZ Betten</t>
-  </si>
-  <si>
-    <t>EZ Betten</t>
-  </si>
-  <si>
     <t>Anzahl Helfer</t>
   </si>
   <si>
-    <t>Preis DZ</t>
-  </si>
-  <si>
     <t>Preis EZ</t>
   </si>
   <si>
@@ -74,15 +65,9 @@
     <t>HP</t>
   </si>
   <si>
-    <t>Guide</t>
-  </si>
-  <si>
     <t>Versicherung</t>
   </si>
   <si>
-    <t>Preis Versicherung</t>
-  </si>
-  <si>
     <t>Ziel Überschuss</t>
   </si>
   <si>
@@ -158,13 +143,28 @@
     <t>Wo endet Gewinnzone?</t>
   </si>
   <si>
-    <t>Guide Trikot Pauschal</t>
-  </si>
-  <si>
     <t>Guide Trikots</t>
   </si>
   <si>
-    <t>Guide pro Tag</t>
+    <t>Anzahl DZ Betten</t>
+  </si>
+  <si>
+    <t>Anzahl EZ Betten</t>
+  </si>
+  <si>
+    <t>Preis DZ (gesamt)</t>
+  </si>
+  <si>
+    <t>GuideLohn Guides</t>
+  </si>
+  <si>
+    <t>Versicherungen</t>
+  </si>
+  <si>
+    <t>Guidelohn pro Tag</t>
+  </si>
+  <si>
+    <t>Helferlohn pro Tag</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -237,6 +237,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -514,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -556,72 +557,72 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
-        <f>B19*(B9/2)*B1</f>
+        <f>B20*(B9/2)*B1</f>
         <v>6250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="4">
-        <f>B19*B29</f>
+        <f>B20*B30</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
-        <f>B20*B10*B1</f>
+        <f>B21*B10*B1</f>
         <v>3465</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4">
-        <f>B20*B30</f>
+        <f>B21*B31</f>
         <v>6510</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
-        <f>(B19+B20)*B11*B1</f>
+        <f>(B20+B21)*B11*B1</f>
         <v>4050</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
         <f>B3*(B9/2)*B1</f>
@@ -630,13 +631,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3">
         <f>B4*B10*B1</f>
@@ -645,13 +646,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3">
         <f>(B3+B4+B5+B6)*B11*B1</f>
@@ -660,148 +661,132 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B9" s="8">
         <v>125</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
-        <f>B16*(B4+B3)*B1</f>
-        <v>525</v>
+        <f>B12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="8">
         <v>99</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
-        <f>(B7+B8)*B12</f>
-        <v>150</v>
+        <f>B14*(B4+B3)*B1</f>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="8">
         <v>30</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3">
-        <f>B14</f>
+        <f>B13*(B5+B6)*B1</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3">
-        <f>100*(B5+B6)*B1</f>
-        <v>0</v>
+        <f>B15*B22</f>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="B13" s="11">
+        <v>100</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3">
-        <f>B15*B21</f>
-        <v>135</v>
+        <f>(B7+B8)*B16</f>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="5">
-        <f>SUM(E3:E13)</f>
-        <v>16145</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="5">
-        <f>SUM(H3:H13)</f>
-        <v>21510</v>
+        <v>45</v>
+      </c>
+      <c r="B14" s="11">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="8">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
+        <f>SUM(E3:E15)</f>
+        <v>16145</v>
+      </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5">
+        <f>SUM(H3:H16)</f>
+        <v>21510</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
-        <f>SUM(B3:B6)</f>
-        <v>3</v>
-      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
@@ -810,146 +795,160 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B19" s="10">
-        <f>B7-B5-B3</f>
-        <v>20</v>
+        <f>SUM(B3:B6)</f>
+        <v>3</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="6">
-        <f>H14-E14</f>
-        <v>5365</v>
-      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="10">
-        <f>B8-B6-B4</f>
-        <v>7</v>
+        <f>B7-B5-B3</f>
+        <v>20</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H20" s="6">
-        <f>H19/B21/B1</f>
-        <v>39.74074074074074</v>
+        <f>H17-E17</f>
+        <v>5365</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B21" s="10">
-        <f>B19+B20</f>
-        <v>27</v>
+        <f>B8-B6-B4</f>
+        <v>7</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="6">
+        <f>H20/B22/B1</f>
+        <v>39.74074074074074</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B22" s="10">
-        <f>SUM(B18:B20)</f>
+        <f>B20+B21</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="10">
+        <f>SUM(B19:B21)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="11">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="11">
         <f>SUM(E6:E8)</f>
         <v>1570</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="3">
-        <f>SUM(E3:E4,E6,E7)+B14</f>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM(E3:E4,E6,E7)+B12</f>
         <v>10835</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="11">
-        <f>SUM(E9:E12)</f>
-        <v>675</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11">
+        <f>SUM(E10:E14)</f>
+        <v>810</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3">
         <f>SUM(E5,E8)</f>
         <v>4500</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="5">
-        <f>SUM(E24:E25)</f>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5">
+        <f>SUM(E25:E26)</f>
         <v>15335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="11">
-        <f>E3/B19+E5/B21+B24/B21+B25/B21+B13*B1</f>
-        <v>745.64814814814815</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="11">
-        <f>E4/B20+E5/B21+B24/B21+B25/B21+B13*B1</f>
-        <v>928.14814814814815</v>
+        <f>E3/B20+E5/B22+B25/B22+B26/B22+B17*B1</f>
+        <v>750.64814814814815</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="9">
-        <v>750</v>
+      <c r="A29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="11">
+        <f>E4/B21+E5/B22+B25/B22+B26/B22+B17*B1</f>
+        <v>933.14814814814815</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B30" s="9">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
         <v>930</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>43</v>
+      <c r="E31" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
+++ b/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="14340" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tour de France 2017" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tour de France 2017'!$A$1:$I$28</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -71,9 +74,6 @@
     <t>EINNAHMEN</t>
   </si>
   <si>
-    <t>Preis Radraum</t>
-  </si>
-  <si>
     <t>Radraum</t>
   </si>
   <si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Kunde/Tag</t>
+  </si>
+  <si>
+    <t>Fahrzeugmiete</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Benzin/Diesel</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,8 +279,29 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,50 +314,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -496,80 +516,92 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -848,10 +880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,737 +894,765 @@
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="F1" s="40"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="73">
+        <f>SUM(B4:B7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62">
         <v>5</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="74">
+        <f>B8-B4-B6</f>
+        <v>20</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="62">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="59">
-        <f>B23*C8*B2/2</f>
+      <c r="F3" s="47">
+        <f>I2*C8*B2/2</f>
         <v>6250</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="47">
-        <f>B23*E30</f>
-        <v>15000</v>
+      <c r="G3" s="20"/>
+      <c r="H3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="74">
+        <f>B9-B5-B7</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="62">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="59">
-        <f>B24*C9*B2</f>
+      <c r="F4" s="47">
+        <f>I3*C9*B2</f>
         <v>3465</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="47">
-        <f>B24*E31</f>
-        <v>6545</v>
+      <c r="G4" s="20"/>
+      <c r="H4" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="74">
+        <f>B10</f>
+        <v>0</v>
       </c>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="62">
         <v>1</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="47">
+        <f>I4*B2*C10/2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="74">
+        <f>B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="62">
+        <v>0</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="59">
-        <f>B25*B2*C10/2</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="47">
-        <f>B25*E32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="59">
-        <f>B26*B2*C11</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="47">
-        <f>B26*E33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="F6" s="47">
+        <f>I5*B2*C11</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="74">
+        <f>SUM(I2:I5)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="62">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="59">
-        <f>B27*C12*B2</f>
+      <c r="F7" s="49">
+        <f>I6*C12*B2</f>
         <v>4050</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="47">
-        <f>-B13*C13-B14*C14</f>
-        <v>0</v>
+      <c r="G7" s="20"/>
+      <c r="H7" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="76">
+        <f>I6+I1</f>
+        <v>30</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14">
+      <c r="A8" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10">
         <v>22</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="14">
         <v>125</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="59">
+      <c r="D8" s="20"/>
+      <c r="E8" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="51">
         <f>B2*B4*C8/2</f>
         <v>625</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="47"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="34"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="14">
         <v>99</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="59">
+      <c r="D9" s="33"/>
+      <c r="E9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="51">
         <f>B5*C9*B2</f>
         <v>495</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="47"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="34"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="51">
+        <f>I1*C12*B2</f>
+        <v>450</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="34"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="59">
-        <f>B22*C12*B2</f>
-        <v>450</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="47"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14">
-        <v>0</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="59">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="51">
         <f>C15</f>
         <v>0</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="B12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="14">
         <v>30</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="59">
-        <f>C17*(B5+B4)*B2</f>
-        <v>525</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="51">
+        <f>C16</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="31"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="51">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="34"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="33" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="51">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="34">
+        <f>I2*F25</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="51">
+        <f>C20*(B5+B4)*B2</f>
+        <v>525</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="34">
+        <f>I3*F26</f>
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="51">
+        <f>C19*(B6+B7)*B2</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="34">
+        <f>I4*F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="51">
+        <f>C21*I6</f>
+        <v>135</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="34">
+        <f>I5*F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="51">
+        <f>(B8+B9)*C22</f>
+        <v>210</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="53">
+        <f>-B13*C13-B14*C14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21">
+        <v>100</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="59">
-        <f>C16*(B6+B7)*B2</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="47"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="F19" s="45">
+        <f>SUM(F3:F18)</f>
+        <v>16205</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="45">
+        <f>SUM(I14:I18)</f>
+        <v>21545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C20" s="21">
+        <v>35</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="30">
-        <v>100</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="59">
-        <f>C18*B27</f>
-        <v>135</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="30">
-        <v>35</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="59">
-        <f>(B8+B9)*C19</f>
-        <v>210</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="30">
+      <c r="C21" s="21">
         <v>5</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="30">
-        <v>7</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="32">
-        <v>40</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="12">
-        <f>SUM(F3:F20)</f>
-        <v>16205</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="12">
-        <f>SUM(I3:I20)</f>
-        <v>21545</v>
-      </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="34">
-        <f>SUM(B4:B7)</f>
-        <v>3</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="66"/>
-    </row>
-    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="34">
-        <f>B8-B4</f>
-        <v>20</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="34">
-        <f>B9-B5</f>
-        <v>7</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="62">
+      <c r="D21" s="20"/>
+      <c r="E21" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="55">
         <f>SUM(F3:F6,F8,F9)+C15</f>
         <v>10835</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="65">
-        <f>I21-F21</f>
+      <c r="G21" s="22"/>
+      <c r="H21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="43">
+        <f>I19-F19</f>
         <v>5340</v>
       </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="34">
-        <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="61">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="21">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="49">
         <f>SUM(F7,F10)</f>
         <v>4500</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="66">
-        <f>IF(B27&gt;0,I24/B27/B2,0)</f>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="44">
+        <f>IF(I6&gt;0,I21/I6/B2,0)</f>
         <v>39.555555555555557</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="71">
+        <v>40</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="45">
+        <f>SUM(F21:F22)</f>
+        <v>15335</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="34"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="28">
+        <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>752.87037037037044</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="29">
+        <v>750</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="32">
+        <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>935.37037037037044</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="12">
+        <v>935</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="32">
+        <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="34"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="34">
-        <f>B11</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="64">
-        <f>SUM(F24:F25)</f>
-        <v>15335</v>
-      </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="67"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="34">
-        <f>SUM(B23:B26)</f>
-        <v>27</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="34">
-        <f>B27+B22</f>
-        <v>30</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="B28" s="35">
+        <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="70"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="66" t="s">
+        <v>54</v>
+      </c>
       <c r="F28" s="36"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="38">
-        <f>IF(B23&lt;&gt;0,(F3/B23)+(SUM($F$7:$F$17)/$B$27)+($C$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>752.87037037037044</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="40">
-        <v>750</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="64"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="44">
-        <f>IF(B24&lt;&gt;0,(F4/B24)+(SUM($F$7:$F$17)/$B$27)+($C$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>935.37037037037044</v>
-      </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="16">
-        <v>935</v>
-      </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="47"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="64"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="44">
-        <f>IF(B25&lt;&gt;0,(F5/B25)+(SUM($F$7:$F$17)/$B$27)+($C$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="49">
-        <f>IF(B26&lt;&gt;0,(F6/B26)+(SUM($F$7:$F$17)/$B$27)+($C$20*$B$2)-$I$7/$B$27,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="55"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C34" s="7"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="7"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="9"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="9"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="64"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="7"/>
       <c r="E37" s="2"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="7"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C38" s="7"/>
       <c r="E38" s="2"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C39" s="9"/>
       <c r="E39" s="2"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F45" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F47" s="1"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="9"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="2"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Standard"&amp;14&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Standard"&amp;10&amp;K000000Druckdatum: &amp;D</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
+++ b/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/Documents/Stessaonda/cycling-adventures.org/2017 Reisen/TdF Bergisches Land/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lutz/Documents/SourceTree/cycling-adventures.org/2017 Reisen/TdF Bergisches Land/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="14340" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tour de France 2017" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -886,7 +889,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
+++ b/2017 Reisen/TdF Bergisches Land/Kalkulation TdF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Tour de France 2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tour de France 2017'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tour de France 2017'!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>Anzahl Nächte</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Anzahl VIP im EZ</t>
+  </si>
+  <si>
+    <t>VIP</t>
   </si>
 </sst>
 </file>
@@ -304,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -508,7 +520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -605,6 +617,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -886,17 +907,17 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
@@ -929,7 +950,7 @@
       </c>
       <c r="I1" s="73">
         <f>SUM(B4:B7)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -948,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="I2" s="74">
-        <f>B8-B4-B6</f>
+        <f>B9-B4-B6</f>
         <v>20</v>
       </c>
       <c r="M2" s="5"/>
@@ -968,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="47">
-        <f>I2*C8*B2/2</f>
+        <f>I2*C9*B2/2</f>
         <v>6250</v>
       </c>
       <c r="G3" s="20"/>
@@ -976,8 +997,8 @@
         <v>21</v>
       </c>
       <c r="I3" s="74">
-        <f>B9-B5-B7</f>
-        <v>7</v>
+        <f>B10-B5-B7</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -993,15 +1014,15 @@
         <v>9</v>
       </c>
       <c r="F4" s="47">
-        <f>I3*C9*B2</f>
-        <v>3465</v>
+        <f>I3*C10*B2</f>
+        <v>2970</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="60" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="74">
-        <f>B10</f>
+        <f>B11</f>
         <v>0</v>
       </c>
       <c r="M4" s="5"/>
@@ -1019,7 +1040,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="47">
-        <f>I4*B2*C10/2</f>
+        <f>I4*B2*C11/2</f>
         <v>0</v>
       </c>
       <c r="G5" s="20"/>
@@ -1027,7 +1048,7 @@
         <v>51</v>
       </c>
       <c r="I5" s="74">
-        <f>B11</f>
+        <f>B12</f>
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1065,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="47">
-        <f>I5*B2*C11</f>
+        <f>I5*B2*C12</f>
         <v>0</v>
       </c>
       <c r="G6" s="20"/>
@@ -1053,7 +1074,7 @@
       </c>
       <c r="I6" s="74">
         <f>SUM(I2:I5)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="20"/>
@@ -1069,8 +1090,8 @@
         <v>11</v>
       </c>
       <c r="F7" s="49">
-        <f>I6*C12*B2</f>
-        <v>4050</v>
+        <f>I6*C13*B2</f>
+        <v>3900</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="75" t="s">
@@ -1085,80 +1106,82 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="10">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14">
-        <v>125</v>
+      <c r="A8" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="81">
+        <v>1</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1000</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="51">
-        <f>B2*B4*C8/2</f>
-        <v>625</v>
+      <c r="E8" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="84">
+        <f>C8*B8</f>
+        <v>1000</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="74"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C9" s="14">
-        <v>99</v>
-      </c>
-      <c r="D9" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="D9" s="20"/>
       <c r="E9" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="51">
-        <f>B5*C9*B2</f>
-        <v>495</v>
+        <f>B2*B4*C9/2</f>
+        <v>625</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="19"/>
       <c r="I9" s="34"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="57" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" s="14">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="51">
-        <f>I1*C12*B2</f>
-        <v>450</v>
+        <f>B5*C10*B2</f>
+        <v>495</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19"/>
       <c r="I10" s="34"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -1168,114 +1191,110 @@
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="50" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11" s="51">
-        <f>C15</f>
-        <v>0</v>
+        <f>I1*C13*B2</f>
+        <v>600</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="19"/>
       <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>58</v>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
       </c>
       <c r="C12" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="50" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F12" s="51">
         <f>C16</f>
         <v>0</v>
       </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="17"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="14">
+        <v>30</v>
+      </c>
       <c r="D13" s="33"/>
       <c r="E13" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="51">
         <f>C17</f>
         <v>0</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="34"/>
+      <c r="H13" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="31"/>
       <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="17"/>
       <c r="D14" s="33"/>
       <c r="E14" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" s="51">
         <f>C18</f>
         <v>0</v>
       </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="34">
-        <f>I2*F25</f>
-        <v>15000</v>
-      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="34"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
+      <c r="A15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="33"/>
       <c r="E15" s="50" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F15" s="51">
-        <f>C20*(B5+B4)*B2</f>
-        <v>525</v>
+        <f>C19</f>
+        <v>0</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="34">
-        <f>I3*F26</f>
-        <v>6545</v>
+        <f>I2*F26</f>
+        <v>16400</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>57</v>
@@ -1285,24 +1304,24 @@
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="50" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F16" s="51">
-        <f>C19*(B6+B7)*B2</f>
-        <v>0</v>
+        <f>C21*(B5+B4)*B2</f>
+        <v>525</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="19" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I16" s="34">
-        <f>I4*F27</f>
-        <v>0</v>
+        <f>I3*F27</f>
+        <v>5940</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>57</v>
@@ -1312,24 +1331,24 @@
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="50" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F17" s="51">
-        <f>C21*I6</f>
-        <v>135</v>
+        <f>C20*(B6+B7)*B2</f>
+        <v>500</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="34">
-        <f>I5*F28</f>
+        <f>I4*F28</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>57</v>
@@ -1339,240 +1358,256 @@
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="51">
+        <f>C22*I6</f>
+        <v>130</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="34">
+        <f>I5*F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="51">
-        <f>(B8+B9)*C22</f>
+      <c r="F19" s="51">
+        <f>(B9+B10)*C23</f>
         <v>210</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="52" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="53">
-        <f>-B13*C13-B14*C14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="21">
-        <v>100</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="45">
-        <f>SUM(F3:F18)</f>
-        <v>16205</v>
-      </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="45">
-        <f>SUM(I14:I18)</f>
-        <v>21545</v>
+      <c r="I19" s="53">
+        <f>-B14*C14-B15*C15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="21">
+        <v>100</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="45">
+        <f>SUM(F3:F19)</f>
+        <v>17205</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="45">
+        <f>SUM(I15:I19)</f>
+        <v>22340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="21">
         <v>35</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="55">
-        <f>SUM(F3:F6,F8,F9)+C15</f>
-        <v>10835</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="43">
-        <f>I19-F19</f>
-        <v>5340</v>
-      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="21">
+        <v>5</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="55">
+        <f>SUM(F3:F6,F9,F10)+C16</f>
+        <v>10340</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="43">
+        <f>I20-F20</f>
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C23" s="21">
         <v>7</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="56" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="49">
-        <f>SUM(F7,F10)</f>
+      <c r="F23" s="49">
+        <f>SUM(F7,F11)</f>
         <v>4500</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="18" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="44">
-        <f>IF(I6&gt;0,I21/I6/B2,0)</f>
-        <v>39.555555555555557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="I23" s="44">
+        <f>IF(I6&gt;0,I22/I6/B2,0)</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B24" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C24" s="71">
         <v>40</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="42" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="45">
-        <f>SUM(F21:F22)</f>
-        <v>15335</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="45"/>
-    </row>
-    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="34"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="F24" s="45">
+        <f>SUM(F22:F23)</f>
+        <v>14840</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="34"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="28">
-        <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>752.87037037037044</v>
-      </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="39" t="s">
+      <c r="B26" s="28">
+        <f>IF(I2&lt;&gt;0,(F3/I2)+(SUM($F$7:$F$19)/$I$6)+($C$24*$B$2)-$I$19/$I$6,0)</f>
+        <v>819.61538461538464</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="29">
-        <v>750</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="32">
-        <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>935.37037037037044</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="12">
-        <v>935</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="34"/>
+      <c r="F26" s="29">
+        <v>820</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B27" s="32">
-        <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="69"/>
+        <f>IF(I3&lt;&gt;0,(F4/I3)+(SUM($F$7:$F$19)/$I$6)+($C$24*$B$2)-$I$19/$I$6,0)</f>
+        <v>1002.1153846153846</v>
+      </c>
+      <c r="C27" s="68"/>
       <c r="D27" s="20"/>
-      <c r="E27" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="12"/>
+      <c r="E27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="12">
+        <v>990</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="34"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="32">
+        <f>IF(I4&lt;&gt;0,(F5/I4)+(SUM($F$7:$F$19)/$I$6)+($C$24*$B$2)-$I$19/$I$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="34"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="35">
-        <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$18)/$I$6)+($C$23*$B$2)-$I$18/$I$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="66" t="s">
+      <c r="B29" s="35">
+        <f>IF(I5&lt;&gt;0,(F6/I5)+(SUM($F$7:$F$19)/$I$6)+($C$24*$B$2)-$I$19/$I$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="64"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
@@ -1597,56 +1632,67 @@
       <c r="I31" s="64"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="26"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="64"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="7"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="64"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
       <c r="E38" s="2"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C39" s="9"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C39" s="7"/>
       <c r="E39" s="2"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="9"/>
       <c r="E40" s="2"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="7"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
       <c r="E41" s="2"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="7"/>
       <c r="E42" s="2"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="3" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E43" s="2"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
